--- a/biology/Botanique/Sérapias_à_labelle_allongé/Sérapias_à_labelle_allongé.xlsx
+++ b/biology/Botanique/Sérapias_à_labelle_allongé/Sérapias_à_labelle_allongé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9rapias_%C3%A0_labelle_allong%C3%A9</t>
+          <t>Sérapias_à_labelle_allongé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Serapias vomeracea
 Le Sérapias à labelle allongé (Serapias vomeracea) est une espèce de plante herbacée pérenne de la famille des Orchidacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9rapias_%C3%A0_labelle_allong%C3%A9</t>
+          <t>Sérapias_à_labelle_allongé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Sérapias à labelle allongé est une plante mesurant de 20 à 58 cm. La base de la tige feuillée est généralement non maculée de pourpre. Le grand labelle étroit atteint environ 37 mm de long et est garni, à sa base, de 2 lames parallèles à légèrement divergentes.
 Chez les Serapias (et les Epipactis), le labelle est composé de 2 parties successives : l'hypochile (partie basale) et l'épichile (partie apicale) .
-Dans le cas de Serapias vomeracea, la partie externe du labelle, l'épichile, est beaucoup plus long que la partie interne, l'hypochile qui est moins large que lui[1](étalé).
-La floraison a lieu de mai à juin[2]. Les fleurs varient de 4 à 10 par tige. 
+Dans le cas de Serapias vomeracea, la partie externe du labelle, l'épichile, est beaucoup plus long que la partie interne, l'hypochile qui est moins large que lui(étalé).
+La floraison a lieu de mai à juin. Les fleurs varient de 4 à 10 par tige. 
 </t>
         </is>
       </c>
